--- a/service-system/src/main/resources/static/雷达厚度-3车道.xlsx
+++ b/service-system/src/main/resources/static/雷达厚度-3车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3795865-B76D-4B4E-A03D-1E7AC9E62F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CDA1E-E0A6-4F8B-8FA2-9AB1930BA24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匝道桥" sheetId="22" r:id="rId1"/>
@@ -1794,11 +1794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA97B8AF-C2AA-4AD6-86E1-7E18CC186E67}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
@@ -2520,6 +2520,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2527,14 +2530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="5.625" style="8" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="8" customWidth="1" collapsed="1"/>
@@ -3251,12 +3254,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页
- </oddHeader>
-    <oddFooter xml:space="preserve">&amp;L           检测：&amp;R   复核：                    </oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4969,10 +4970,10 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
@@ -5694,6 +5695,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5701,11 +5705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26688DC0-F396-4583-928E-DDC281AA588B}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
@@ -6363,6 +6367,9 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I40:J40"/>
@@ -6371,7 +6378,6 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
@@ -6384,14 +6390,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
@@ -6401,6 +6399,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A6:A47"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -6427,6 +6431,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6435,10 +6442,10 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
@@ -7096,6 +7103,9 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I40:J40"/>
@@ -7104,7 +7114,6 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
@@ -7117,14 +7126,6 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
@@ -7134,6 +7135,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A6:A47"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="H2:I2"/>
@@ -7160,6 +7167,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7168,7 +7178,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:L35"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7964,11 +7974,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L        检测：&amp;R   复核：                    </oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7978,7 +7987,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8774,11 +8783,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L        检测：&amp;R   复核：                    </oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -8788,13 +8796,13 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.5" style="13" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.75" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="5.625" style="8" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="8" customWidth="1" collapsed="1"/>
@@ -9511,12 +9519,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页
- </oddHeader>
-    <oddFooter xml:space="preserve">&amp;L           检测：&amp;R   复核：                    </oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -9526,10 +9532,10 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="7" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
@@ -10249,11 +10255,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.47244094488188981"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L          检测：&amp;R   复核：                    </oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -10263,13 +10268,13 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="5.625" style="8" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.625" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="8" customWidth="1" collapsed="1"/>
@@ -10986,12 +10991,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.74803149606299213" right="0.43307086614173229" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页
- </oddHeader>
-    <oddFooter xml:space="preserve">&amp;L           检测：&amp;R   复核：                    </oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" firstPageNumber="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
